--- a/backend/employeeData.xlsx
+++ b/backend/employeeData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="174">
   <si>
     <t>Emp_ID</t>
   </si>
@@ -532,6 +532,12 @@
   </si>
   <si>
     <t>7641 Cedar Ridge Lane</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>fsffsfs</t>
   </si>
 </sst>
 </file>
@@ -548,34 +554,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFd1d5db"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF444654"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -587,46 +583,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,1346 +921,1372 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="32.25" customFormat="1" s="1">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4">
         <v>35</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="4">
         <v>1234567890</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="4">
         <v>28</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="4">
         <v>2345678901</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="4">
         <v>42</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="4">
         <v>3456789012</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="4">
         <v>31</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="4">
         <v>4567890123</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="4">
         <v>47</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4">
         <v>5678901234</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="4">
         <v>29</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="4">
         <v>6789012345</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="4">
         <v>38</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="4">
         <v>7890123456</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="4">
         <v>33</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="4">
         <v>8901234567</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="4">
         <v>45</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="4">
         <v>9012345678</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="4">
         <v>27</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="4">
         <v>123456789</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="4">
         <v>39</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="4">
         <v>9876543210</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="4">
         <v>30</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="4">
         <v>8765432109</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="4">
         <v>48</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="4">
         <v>7654321098</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="4">
         <v>31</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="4">
         <v>6543210987</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="4">
         <v>36</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="4">
         <v>5432109876</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="4">
         <v>28</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="4">
         <v>4321098765</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="4">
         <v>44</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="4">
         <v>3210987654</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="4">
         <v>39</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="4">
-        <f>1-202-555-167</f>
-      </c>
-      <c r="H19" s="5" t="s">
+        <v>3210987655</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="4">
         <v>28</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="4">
-        <f>1-415-555-198</f>
-      </c>
-      <c r="H20" s="5" t="s">
+        <v>3210987656</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E21" s="4">
         <v>32</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="4">
-        <f>1-312-555-187</f>
-      </c>
-      <c r="H21" s="5" t="s">
+        <v>3210987657</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E22" s="4">
         <v>25</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="4">
-        <f>1-617-555-176</f>
-      </c>
-      <c r="H22" s="5" t="s">
+        <v>3210987658</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="4">
         <v>30</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="4">
-        <f>1-713-555-165</f>
-      </c>
-      <c r="H23" s="5" t="s">
+        <v>3210987659</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E24" s="4">
         <v>42</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="4">
-        <f>1-206-555-154</f>
-      </c>
-      <c r="H24" s="5" t="s">
+        <v>3210987610</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E25" s="4">
         <v>26</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="4">
-        <f>1-310-555-143</f>
-      </c>
-      <c r="H25" s="5" t="s">
+        <v>3210987611</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E26" s="4">
         <v>29</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="4">
-        <f>1-312-555-132</f>
-      </c>
-      <c r="H26" s="5" t="s">
+        <v>3210987612</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E27" s="4">
         <v>24</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="4">
-        <f>1-213-555-121</f>
-      </c>
-      <c r="H27" s="5" t="s">
+        <v>3210987613</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E28" s="4">
         <v>31</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="4">
-        <f>1-415-555-110</f>
-      </c>
-      <c r="H28" s="5" t="s">
+        <v>3210987614</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E29" s="4">
         <v>37</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="4">
-        <f>1-617-555-209</f>
-      </c>
-      <c r="H29" s="5" t="s">
+        <v>3210987615</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E30" s="4">
         <v>27</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="4">
-        <f>1-206-555-220</f>
-      </c>
-      <c r="H30" s="5" t="s">
+        <v>3210987654</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E31" s="4">
         <v>33</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="4">
-        <f>1-310-555-231</f>
-      </c>
-      <c r="H31" s="5" t="s">
+        <v>3210987625</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E32" s="4">
         <v>26</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="4">
-        <f>1-312-555-242</f>
-      </c>
-      <c r="H32" s="5" t="s">
+        <v>3210987665</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E33" s="4">
         <v>29</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="4">
-        <f>1-213-555-253</f>
-      </c>
-      <c r="H33" s="5" t="s">
+        <v>3210987667</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E34" s="4">
         <v>43</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="4">
-        <f>1-617-555-264</f>
-      </c>
-      <c r="H34" s="5" t="s">
+        <v>3210987644</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="4">
         <v>28</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="4">
         <v>35</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="F36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E37" s="4">
         <v>42</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E38" s="4">
         <v>25</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="F38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E39" s="4">
         <v>31</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="4">
         <v>40</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="F40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="4">
         <v>29</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="F41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E42" s="4">
         <v>26</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="F42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E43" s="4">
         <v>38</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E44" s="4">
         <v>27</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="F44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="4">
         <v>32</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="4" t="s">
+      <c r="F45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="4">
         <v>24</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="4" t="s">
+      <c r="F46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E47" s="4">
         <v>41</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="4" t="s">
+      <c r="F47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E48" s="4">
         <v>30</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="4" t="s">
+      <c r="F48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E49" s="4">
         <v>33</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="F49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="4">
         <v>29</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="F50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="50.4" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="4">
         <v>28</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="4" t="s">
+      <c r="F51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="2" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="5">
+        <v>122</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2222</v>
+      </c>
+      <c r="E52" s="4">
+        <v>448</v>
+      </c>
+      <c r="F52" s="5">
+        <v>555</v>
+      </c>
+      <c r="G52" s="1">
+        <v>56565656</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
